--- a/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
+++ b/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\死ね\オーバーキラー\オーバーキラー\マップデータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\マスターデータ\オーバーキラー\オーバーキラー\マップデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="DI6" sqref="DI6"/>
+    <sheetView tabSelected="1" topLeftCell="FT1" workbookViewId="0">
+      <selection activeCell="GM13" sqref="GM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="GK4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="GD6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GE6">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="GH6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GI6">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="GF8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GG8">
         <v>0</v>
@@ -6965,5 +6965,6 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
+++ b/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FT1" workbookViewId="0">
-      <selection activeCell="GM13" sqref="GM13"/>
+    <sheetView tabSelected="1" topLeftCell="FC1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="DY11" sqref="DY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DO2">
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ2">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DU2">
         <v>2</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB2">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="DQ3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DR3">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="DU3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DV3">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DR5">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="DU5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DV5">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="DY5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="GA5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GB5">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="DQ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DR6">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="DU6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DV6">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
         <v>0</v>

--- a/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
+++ b/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FC1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="DY11" sqref="DY11"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="DC13" sqref="DC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY2">
         <v>0</v>
@@ -1861,28 +1861,28 @@
         <v>0</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC2">
         <v>0</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DG2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DH2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DI2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ2">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -2427,64 +2427,64 @@
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DA3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DC3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
       <c r="DG3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM4">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CP4">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="DG4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -3646,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="CY5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
         <v>0</v>
@@ -4221,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CN6">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="CL7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="DA7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DB7">
         <v>0</v>
@@ -4886,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="DG7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ7">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="CK8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -5482,19 +5482,19 @@
         <v>0</v>
       </c>
       <c r="DE8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DF8">
         <v>0</v>
       </c>
       <c r="DG8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ8">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="CJ9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="CN9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -6087,16 +6087,16 @@
         <v>0</v>
       </c>
       <c r="DF9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DG9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DH9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DI9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DJ9">
         <v>5</v>
@@ -6632,46 +6632,46 @@
         <v>4</v>
       </c>
       <c r="CM10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CO10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CP10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CX10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CY10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CZ10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DA10">
         <v>4</v>

--- a/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
+++ b/オーバーキラー/オーバーキラー/マップデータ/マップ002.xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="DC13" sqref="DC13"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="CT12" sqref="CT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ2">
         <v>5</v>
@@ -2427,46 +2427,46 @@
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DD3">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="CO4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CP4">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN6">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="CL7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM7">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="CK8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="CJ9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -6626,52 +6626,52 @@
         <v>4</v>
       </c>
       <c r="CK10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL10">
         <v>4</v>
       </c>
       <c r="CM10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CO10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CY10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CZ10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DA10">
         <v>4</v>
